--- a/E1/data.xlsx
+++ b/E1/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\inohaan\projects\experiment-3s\E1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D534AA-A60F-427E-AEF1-037AE3ACFA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F4E10-01FB-41DA-8F5E-FEA105B9F55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-2690" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)large" sheetId="2" r:id="rId1"/>
@@ -450,12 +450,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -469,7 +469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -480,7 +480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1000</v>
       </c>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2900</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>3000</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>10000</v>
       </c>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10000</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10000</v>
       </c>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>30000</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>30000</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>30000</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>49000</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>49000</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>50000</v>
       </c>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>52000</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>52000</v>
       </c>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>52000</v>
       </c>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>30000</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>30000</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>30000</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>10000</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>10000</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>10000</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>2900</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>2900</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>2900</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>1000</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>1000</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>1000</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>1000</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>1000</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>1100</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>3000</v>
       </c>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>3000</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>3000</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>10000</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>10000</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>11000</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>30000</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>30000</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>30000</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>50000</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>50000</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>50000</v>
       </c>
@@ -1138,12 +1138,12 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1100</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1100</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1100</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1100</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1100</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1100</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1100</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1100</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1100</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1100</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1100</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1100</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1100</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1100</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1100</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1100</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1100</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1100</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1000</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1000</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>1000</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1000</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1000</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1000</v>
       </c>
@@ -1514,16 +1514,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EBDBC-9317-4629-839A-2F5F31E7C5B2}">
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="154" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A44"/>
+    <sheetView topLeftCell="A36" zoomScale="154" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>50</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>50</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>500</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>500</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>500</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>500</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>500</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>500</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>5000</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>5000</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>5000</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>5000</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>5000</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>5000</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1500</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1500</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>1500</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1500</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1500</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1500</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>1500</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>150</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>150</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>150</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>150</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>150</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>150</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>150</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>150</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>3000</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>3000</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>3000</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>3000</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>3000</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>3000</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>3000</v>
       </c>
@@ -2000,13 +2000,13 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1048576" s="1"/>
     </row>
   </sheetData>
@@ -2017,15 +2017,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2036,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2064,13 +2064,13 @@
         <v>3</v>
       </c>
       <c r="D3">
+        <v>43.52</v>
+      </c>
+      <c r="E3">
         <v>18.21</v>
       </c>
-      <c r="E3">
-        <v>43.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2081,13 +2081,13 @@
         <v>3</v>
       </c>
       <c r="D4">
+        <v>43.17</v>
+      </c>
+      <c r="E4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>43.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2098,13 +2098,13 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <v>44.07</v>
+      </c>
+      <c r="E5">
         <v>11.3</v>
       </c>
-      <c r="E5">
-        <v>44.07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2115,13 +2115,13 @@
         <v>3</v>
       </c>
       <c r="D6">
+        <v>22.08</v>
+      </c>
+      <c r="E6">
         <v>8.98</v>
       </c>
-      <c r="E6">
-        <v>22.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2132,13 +2132,13 @@
         <v>3</v>
       </c>
       <c r="D7">
+        <v>22.38</v>
+      </c>
+      <c r="E7">
         <v>8.59</v>
       </c>
-      <c r="E7">
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2149,13 +2149,13 @@
         <v>3</v>
       </c>
       <c r="D8">
+        <v>22.62</v>
+      </c>
+      <c r="E8">
         <v>8.48</v>
       </c>
-      <c r="E8">
-        <v>22.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2166,13 +2166,13 @@
         <v>3</v>
       </c>
       <c r="D9">
+        <v>17.63</v>
+      </c>
+      <c r="E9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E9">
-        <v>17.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2183,13 +2183,13 @@
         <v>3</v>
       </c>
       <c r="D10">
+        <v>17.68</v>
+      </c>
+      <c r="E10">
         <v>8.02</v>
       </c>
-      <c r="E10">
-        <v>17.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2200,13 +2200,13 @@
         <v>3</v>
       </c>
       <c r="D11">
+        <v>17.73</v>
+      </c>
+      <c r="E11">
         <v>7.9</v>
       </c>
-      <c r="E11">
-        <v>17.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2217,13 +2217,13 @@
         <v>3</v>
       </c>
       <c r="D12">
+        <v>12.61</v>
+      </c>
+      <c r="E12">
         <v>7.43</v>
       </c>
-      <c r="E12">
-        <v>12.61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2234,13 +2234,13 @@
         <v>3</v>
       </c>
       <c r="D13">
+        <v>12.94</v>
+      </c>
+      <c r="E13">
         <v>7.4</v>
       </c>
-      <c r="E13">
-        <v>12.94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2251,13 +2251,13 @@
         <v>3</v>
       </c>
       <c r="D14">
+        <v>12.71</v>
+      </c>
+      <c r="E14">
         <v>7.43</v>
       </c>
-      <c r="E14">
-        <v>12.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2268,13 +2268,13 @@
         <v>3</v>
       </c>
       <c r="D15">
+        <v>8.94</v>
+      </c>
+      <c r="E15">
         <v>6.53</v>
       </c>
-      <c r="E15">
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2285,13 +2285,13 @@
         <v>3</v>
       </c>
       <c r="D16">
+        <v>8.92</v>
+      </c>
+      <c r="E16">
         <v>6.31</v>
       </c>
-      <c r="E16">
-        <v>8.92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2302,13 +2302,13 @@
         <v>3</v>
       </c>
       <c r="D17">
+        <v>8.89</v>
+      </c>
+      <c r="E17">
         <v>6.19</v>
       </c>
-      <c r="E17">
-        <v>8.89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>30.23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2387,13 +2387,13 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>22.91</v>
+        <v>29.91</v>
       </c>
       <c r="E22">
         <v>22.42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2403,8 +2403,14 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23">
+        <v>29.6</v>
+      </c>
+      <c r="E23">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2414,8 +2420,14 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24">
+        <v>19.36</v>
+      </c>
+      <c r="E24">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2425,8 +2437,14 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25">
+        <v>19.39</v>
+      </c>
+      <c r="E25">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2436,8 +2454,14 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26">
+        <v>19.25</v>
+      </c>
+      <c r="E26">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2447,8 +2471,11 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27">
+        <v>40.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2458,8 +2485,14 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="E28">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2469,8 +2502,14 @@
       <c r="C29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="E29">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2480,8 +2519,14 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30">
+        <v>25.08</v>
+      </c>
+      <c r="E30">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2491,8 +2536,14 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31">
+        <v>27.01</v>
+      </c>
+      <c r="E31">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2502,8 +2553,14 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32">
+        <v>27.62</v>
+      </c>
+      <c r="E32">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2513,8 +2570,14 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E33">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2524,8 +2587,14 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34">
+        <v>18.8</v>
+      </c>
+      <c r="E34">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2535,10 +2604,11 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>34</v>
+      <c r="D35">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E35">
+        <v>11.54</v>
       </c>
     </row>
   </sheetData>
